--- a/Document/.Net/BasicAPI.xlsx
+++ b/Document/.Net/BasicAPI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\CommonJS\Document\.Net\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Hung\Code\JS\Common\Document\.Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99B5E38-6F62-4BDD-8AB2-6B94F044C280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900"/>
   </bookViews>
   <sheets>
     <sheet name="Basic package" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Add  entity framework: https://docs.microsoft.com/en-us/dotnet/architecture/modern-web-apps-azure/work-with-data-in-asp-net-core-apps</t>
   </si>
@@ -179,11 +178,38 @@
   <si>
     <t>Microsoft.AspNetCore.Authentication.Cookies</t>
   </si>
+  <si>
+    <t>Tạo các table entity framework</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/aspnet/core/security/authentication/customize-identity-model?view=aspnetcore-3.1</t>
+  </si>
+  <si>
+    <t>Custom table entity framework</t>
+  </si>
+  <si>
+    <t>If existing database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scaffold-DbContext "Server=DESKTOP-K7S5ARI\\HUNG_NGO;Database=QuanLyLuong;Trusted_Connection=True;" Microsoft.EntityFrameworkCore.SqlServer -OutputDir Models</t>
+  </si>
+  <si>
+    <t>sử dụng cmd</t>
+  </si>
+  <si>
+    <t>Rule relation ship in entity framework</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/ef/core/modeling/relationships?tabs=fluent-api%2Cfluent-api-simple-key%2Csimple-key</t>
+  </si>
+  <si>
+    <t>https://www.entityframeworktutorial.net/efcore/create-model-for-existing-database-in-ef-core.aspx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +271,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -278,16 +307,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10770</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>526700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>99552</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>113950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -310,8 +339,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12393270" y="2415540"/>
-          <a:ext cx="6611930" cy="3536172"/>
+          <a:off x="14596720" y="4470400"/>
+          <a:ext cx="6738930" cy="3744452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176057</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="341928"/>
+          <a:ext cx="12368057" cy="6226270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -324,24 +396,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB167038-D01C-4D49-9A53-918251764A57}" name="Table1" displayName="Table1" ref="A3:C27" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A3:C27" xr:uid="{9A38B002-EFC2-4199-AFA3-227B99B7AE94}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{892C11CC-E2CE-48E0-B0CB-E2386A0A5EC5}" name="package console" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7A91080C-E19C-481B-9DBB-9AA4DBA8716E}" name="description" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C2166783-92AE-4AB2-B7C3-6B18258F038A}" name="Example" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A3:D27"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="package console" dataDxfId="3"/>
+    <tableColumn id="2" name="description" dataDxfId="2"/>
+    <tableColumn id="3" name="Example" dataDxfId="1"/>
+    <tableColumn id="4" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B74B894-4FE4-478E-9EC1-A9C49C62181E}" name="Table2" displayName="Table2" ref="A3:C6" totalsRowShown="0">
-  <autoFilter ref="A3:C6" xr:uid="{DF04A557-7251-447F-8D2E-94FA2F1D418C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C6" totalsRowShown="0">
+  <autoFilter ref="A3:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2CBFE2C3-4877-452B-99B3-6F9E23887C1A}" name="Key"/>
-    <tableColumn id="3" xr3:uid="{12987A6F-7576-466F-98CC-2EDEAB9D4B0D}" name="Description"/>
-    <tableColumn id="2" xr3:uid="{22E9F75D-5592-4D19-944C-459BC67B0A4A}" name="Link" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" name="Key"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="2" name="Link" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -609,22 +682,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="52.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.08984375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -641,7 +715,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -651,8 +725,11 @@
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -660,8 +737,9 @@
         <v>3</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -669,8 +747,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -678,15 +757,17 @@
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -694,8 +775,9 @@
         <v>9</v>
       </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -703,8 +785,9 @@
         <v>11</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -712,8 +795,9 @@
         <v>13</v>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -721,8 +805,9 @@
         <v>16</v>
       </c>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -732,8 +817,9 @@
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -741,8 +827,9 @@
       <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -750,24 +837,29 @@
         <v>37</v>
       </c>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -777,88 +869,112 @@
       <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{07CBA84B-D26A-4BB8-8537-C9219FC0F371}"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A75692-F82F-420D-9B6C-913722A81D39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" customWidth="1"/>
-    <col min="3" max="3" width="93.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" customWidth="1"/>
+    <col min="3" max="3" width="93.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -872,7 +988,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -883,7 +999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -891,7 +1007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -899,7 +1015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -915,9 +1031,9 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{E86C6E6B-D469-4BA9-B8E6-7255983C40FC}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{A6F4C8D9-116D-4C10-B460-B95529D1D6C9}"/>
-    <hyperlink ref="C6" r:id="rId3" location="distributed-sql-server-cache" xr:uid="{EB68998F-E474-4B18-8A00-7F99739C55FD}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3" location="distributed-sql-server-cache"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -927,21 +1043,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFD73EE-B0D4-4A73-A3FE-3F52B7CF7078}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/.Net/BasicAPI.xlsx
+++ b/Document/.Net/BasicAPI.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic package" sheetId="1" r:id="rId1"/>
-    <sheet name="Cache Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Relationship" sheetId="3" r:id="rId3"/>
+    <sheet name="Security(Xss-CSRF)" sheetId="4" r:id="rId2"/>
+    <sheet name="Cache Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Relationship" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Add  entity framework: https://docs.microsoft.com/en-us/dotnet/architecture/modern-web-apps-azure/work-with-data-in-asp-net-core-apps</t>
   </si>
@@ -205,12 +206,103 @@
   <si>
     <t>https://www.entityframeworktutorial.net/efcore/create-model-for-existing-database-in-ef-core.aspx</t>
   </si>
+  <si>
+    <t>https://dzone.com/articles/how-to-optimize-aspnet-core-performance-with-distr</t>
+  </si>
+  <si>
+    <t>Distributed NCache Cache</t>
+  </si>
+  <si>
+    <t>Alachisoft.NCache.OpenSource.SDK</t>
+  </si>
+  <si>
+    <t>Distributed cache Ncache</t>
+  </si>
+  <si>
+    <t>Lưu database in cache tối ưu việc sử dụng database</t>
+  </si>
+  <si>
+    <t>Alachisoft.NCache.OpenSource.SessionServices</t>
+  </si>
+  <si>
+    <t>Open source nchae</t>
+  </si>
+  <si>
+    <t>HtmlSanitizer</t>
+  </si>
+  <si>
+    <t>Chống tân công thẻ tag &lt;Script&gt;</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Same-site</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/aspnet/core/security/samesite?view=aspnetcore-5.0</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Décription</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>Lax</t>
+  </si>
+  <si>
+    <r>
+      <t>SameSite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một thuộc tính của Set-Cookie trong HTTP response header giúp bạn ngăn cấm một site khác truy cập vào cookie hoặc cho phép trang chụ thể. SameSite nhận giá trị thuộc 1 trong 3 (None, Strict, LaX)</t>
+    </r>
+  </si>
+  <si>
+    <t>Định nghĩa</t>
+  </si>
+  <si>
+    <t>Đúng như tên gọi của nó, giá trị của Strict phòng ngừa các web giả mạo rất mạnh mẽ. Trình duyệt sẽ ngăn dữ liệu cookie chuyển giữa các tên miền chéo khác trong mọi trường hợp. Phần lớn các trang web dịch vụ tài chính, ngân hàng, tiền điện tử sẽ chọn đặt giá trị SameSite của họ là  Strict. SameSite = Strict sẽ lấy đi sự tiện dụng mà người dùng đã quen với khả năng chia sẻ thông tin của người dùng giữa các site, nhưng an toàn là trên hết.‍</t>
+  </si>
+  <si>
+    <t>Để tăng sự tiện dụng nhưng vẫn duy trì tính an toàn nhất định, hãy đặt SameSite = Lax. Với cài đặt này, trình duyệt sẽ cho phép chia sẻ cookie giữa các trang web có cùng tên miền bắt chéo với nhau bắt nguồn từ yêu cầu GET cấp cao nhất.
+Như vậy 2 trang web có thể chia sẻ dữ liệu cookie cho nhau miễn nó thuộc cùng một miền chéo, ví dụ hai web có cùng domain chính với nhau.</t>
+  </si>
+  <si>
+    <t>Việc sử dụng Cookie sẽ bình thường như trước đây khi có thể chia sẻ thông tin giữa bất cứ trang web nào với nhau. Với thiết lập này, rất thận trọng xem xét thông tin gì thì lưu ở Cookie và thông tin nào không. Người dùng sẽ có nhiều thuận lợi khi nhờ thông tin cá nhân được lưu trữ mà các trang web sẽ tối ưu để cá nhân hóa theo trải nghiệm của riêng họ. Đánh đổi lại là nguy cơ bảo mật bị các trang web lừa đảo ăn cắp thông tin cá nhân.‍</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Attach</t>
+  </si>
+  <si>
+    <t>XSS</t>
+  </si>
+  <si>
+    <t>CSRF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +314,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -260,8 +360,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,7 +380,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -396,21 +523,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A3:D27"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="package console" dataDxfId="3"/>
-    <tableColumn id="2" name="description" dataDxfId="2"/>
-    <tableColumn id="3" name="Example" dataDxfId="1"/>
-    <tableColumn id="4" name="Link" dataDxfId="0"/>
+    <tableColumn id="1" name="package console" dataDxfId="9"/>
+    <tableColumn id="2" name="description" dataDxfId="8"/>
+    <tableColumn id="3" name="Example" dataDxfId="7"/>
+    <tableColumn id="4" name="Link" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C6" totalsRowShown="0">
-  <autoFilter ref="A3:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:E7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B2:E7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" name="Value" dataDxfId="2"/>
+    <tableColumn id="3" name="Décription" dataDxfId="1"/>
+    <tableColumn id="4" name="a" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C7" totalsRowShown="0">
+  <autoFilter ref="A3:C7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="3" name="Description"/>
@@ -685,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,21 +839,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -896,20 +1036,34 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
@@ -961,10 +1115,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="3" width="10.26953125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="56.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,18 +1242,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1024,6 +1291,14 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1034,15 +1309,16 @@
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3" location="distributed-sql-server-cache"/>
+    <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/Document/.Net/BasicAPI.xlsx
+++ b/Document/.Net/BasicAPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basic package" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>Add  entity framework: https://docs.microsoft.com/en-us/dotnet/architecture/modern-web-apps-azure/work-with-data-in-asp-net-core-apps</t>
   </si>
@@ -296,6 +296,21 @@
   </si>
   <si>
     <t>CSRF</t>
+  </si>
+  <si>
+    <t>https://www.infoworld.com/article/3262990/how-to-implement-a-distributed-cache-in-aspnet-core.html</t>
+  </si>
+  <si>
+    <t>Install-Package Microsoft.Extensions.Caching.Redis</t>
+  </si>
+  <si>
+    <t>Install-Package Microsoft.Extensions.Caching.SqlServer</t>
+  </si>
+  <si>
+    <t>use server Redis</t>
+  </si>
+  <si>
+    <t>use save db sql server</t>
   </si>
 </sst>
 </file>
@@ -549,8 +564,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C7" totalsRowShown="0">
-  <autoFilter ref="A3:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C9" totalsRowShown="0">
+  <autoFilter ref="A3:C9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="3" name="Description"/>
@@ -1117,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1228,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1255,6 +1270,11 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
@@ -1300,6 +1320,24 @@
       <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/.Net/BasicAPI.xlsx
+++ b/Document/.Net/BasicAPI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Hung\Code\JS\Common\Document\.Net\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\CommonJS\Document\.Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FCB51B-752A-482B-833C-17AA50ED7A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic package" sheetId="1" r:id="rId1"/>
@@ -316,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +512,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -538,38 +545,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:D27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="package console" dataDxfId="9"/>
-    <tableColumn id="2" name="description" dataDxfId="8"/>
-    <tableColumn id="3" name="Example" dataDxfId="7"/>
-    <tableColumn id="4" name="Link" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="package console" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="description" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Example" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Link" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:E7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B2:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B2:E7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B2:E7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="3"/>
-    <tableColumn id="2" name="Value" dataDxfId="2"/>
-    <tableColumn id="3" name="Décription" dataDxfId="1"/>
-    <tableColumn id="4" name="a" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Value" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Décription" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="a" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C9" totalsRowShown="0">
-  <autoFilter ref="A3:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A3:C9" totalsRowShown="0">
+  <autoFilter ref="A3:C9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Key"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="2" name="Link" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Link" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,23 +844,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.08984375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="52.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -870,7 +877,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -884,7 +891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -894,7 +901,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -904,7 +911,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -914,7 +921,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -922,7 +929,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -932,7 +939,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -942,7 +949,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -952,7 +959,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -962,7 +969,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -974,7 +981,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -984,7 +991,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -994,7 +1001,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1006,7 +1013,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -1014,7 +1021,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1026,7 +1033,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -1036,7 +1043,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -1060,7 +1067,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1072,7 +1079,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -1082,31 +1089,31 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1117,8 +1124,8 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="A18" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -1129,22 +1136,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="3" width="10.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="56.6328125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="8.77734375" style="6"/>
+    <col min="2" max="3" width="10.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
@@ -1154,7 +1161,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>76</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
@@ -1186,7 +1193,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>67</v>
@@ -1196,7 +1203,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>68</v>
@@ -1206,7 +1213,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>69</v>
@@ -1216,7 +1223,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -1232,7 +1239,7 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1242,21 +1249,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" customWidth="1"/>
-    <col min="3" max="3" width="93.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" customWidth="1"/>
+    <col min="3" max="3" width="93.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1270,12 +1277,12 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1286,7 +1293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1321,7 +1328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1330,7 +1337,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1344,10 +1351,10 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3" location="distributed-sql-server-cache"/>
-    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" location="distributed-sql-server-cache" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1357,33 +1364,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Document/.Net/BasicAPI.xlsx
+++ b/Document/.Net/BasicAPI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\CommonJS\Document\.Net\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Hung\Code\JS\Common\Document\.Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FCB51B-752A-482B-833C-17AA50ED7A66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Basic package" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Add  entity framework: https://docs.microsoft.com/en-us/dotnet/architecture/modern-web-apps-azure/work-with-data-in-asp-net-core-apps</t>
   </si>
@@ -313,11 +312,14 @@
   <si>
     <t>use save db sql server</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,38 +547,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:D27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:D27"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="package console" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="description" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Example" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Link" dataDxfId="6"/>
+    <tableColumn id="1" name="package console" dataDxfId="9"/>
+    <tableColumn id="2" name="description" dataDxfId="8"/>
+    <tableColumn id="3" name="Example" dataDxfId="7"/>
+    <tableColumn id="4" name="Link" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="B2:E7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B2:E7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:E8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B2:E8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Value" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Décription" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="a" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" name="Value" dataDxfId="2"/>
+    <tableColumn id="3" name="Décription" dataDxfId="1"/>
+    <tableColumn id="4" name="a" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A3:C9" totalsRowShown="0">
-  <autoFilter ref="A3:C9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C9" totalsRowShown="0">
+  <autoFilter ref="A3:C9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Link" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" name="Key"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="2" name="Link" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -844,23 +846,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="52.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.08984375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -877,7 +879,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -891,7 +893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -901,7 +903,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -911,7 +913,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -921,7 +923,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -929,7 +931,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -939,7 +941,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -949,7 +951,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -959,7 +961,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -969,7 +971,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -981,7 +983,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -991,7 +993,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1001,7 +1003,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1013,7 +1015,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -1021,7 +1023,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1033,7 +1035,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -1043,7 +1045,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -1067,7 +1069,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1079,7 +1081,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -1089,31 +1091,31 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1124,8 +1126,8 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="A18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -1136,22 +1138,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="6"/>
-    <col min="2" max="3" width="10.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="56.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="3" width="10.1796875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="56.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
@@ -1161,7 +1163,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>76</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
@@ -1193,7 +1195,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>67</v>
@@ -1203,7 +1205,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>68</v>
@@ -1213,7 +1215,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>69</v>
@@ -1223,7 +1225,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -1233,13 +1235,21 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1249,21 +1259,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" customWidth="1"/>
-    <col min="3" max="3" width="93.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" customWidth="1"/>
+    <col min="3" max="3" width="93.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1277,12 +1287,12 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +1303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1309,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1328,7 +1338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1337,7 +1347,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1351,10 +1361,10 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" location="distributed-sql-server-cache" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3" location="distributed-sql-server-cache"/>
+    <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1364,33 +1374,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
